--- a/components.xlsx
+++ b/components.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\projects\nixies\external\PSU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\projects\nixies\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="163">
   <si>
     <t>C1</t>
   </si>
@@ -492,6 +492,27 @@
   </si>
   <si>
     <t>505-MKPX2.1/275/10P</t>
+  </si>
+  <si>
+    <t>625-ES2G-E3/5BT</t>
+  </si>
+  <si>
+    <t>have</t>
+  </si>
+  <si>
+    <t>sparkfun</t>
+  </si>
+  <si>
+    <t>871-B82477P4473M000</t>
+  </si>
+  <si>
+    <t>ALTERNATIVE TO U$2</t>
+  </si>
+  <si>
+    <t>ALTERNATIVE TO L1</t>
+  </si>
+  <si>
+    <t>used L1</t>
   </si>
 </sst>
 </file>
@@ -927,8 +948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:XFD31"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1363,6 +1384,12 @@
       <c r="D22" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="G22" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="6" t="s">
@@ -1482,6 +1509,9 @@
       <c r="D29" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="G29" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
@@ -1496,6 +1526,9 @@
       <c r="D30" s="2" t="s">
         <v>65</v>
       </c>
+      <c r="G30" s="2" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
@@ -1508,19 +1541,31 @@
       <c r="D31" s="2" t="s">
         <v>68</v>
       </c>
+      <c r="G31" s="2" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="9" t="s">
         <v>71</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1816,17 +1861,23 @@
       </c>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D53" s="9" t="s">
         <v>117</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -1852,8 +1903,10 @@
     <hyperlink ref="H17" r:id="rId19" display="http://www.mouser.com/Search/ProductDetail.aspx?R=MKX21W31004B00KSSDvirtualkey50520000virtualkey505-MKPX2.1%2f275%2f10P"/>
     <hyperlink ref="H18" r:id="rId20" display="http://www.mouser.com/Search/ProductDetail.aspx?R=VJ1206V106ZXQTW1BCvirtualkey61340000virtualkey77-VJ1206V106ZXQTBC"/>
     <hyperlink ref="H19" r:id="rId21" display="http://www.mouser.com/Search/ProductDetail.aspx?R=VJ1206V106ZXQTW1BCvirtualkey61340000virtualkey77-VJ1206V106ZXQTBC"/>
+    <hyperlink ref="H22" r:id="rId22" display="http://www.mouser.com/Search/ProductDetail.aspx?R=ES2G-E3%2f5BTvirtualkey61370000virtualkey625-ES2G-E3%2f5BT"/>
+    <hyperlink ref="H32" r:id="rId23" display="http://www.mouser.com/Search/ProductDetail.aspx?R=B82477P4473M000virtualkey59250000virtualkey871-B82477P4473M000"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId22"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId24"/>
 </worksheet>
 </file>
--- a/components.xlsx
+++ b/components.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\projects\nixies\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="162">
   <si>
     <t>C1</t>
   </si>
@@ -254,18 +249,6 @@
     <t>INDUCTOR_6X6MM_TDK_VLC6045</t>
   </si>
   <si>
-    <t>LP1</t>
-  </si>
-  <si>
-    <t>3,17/1,3</t>
-  </si>
-  <si>
-    <t>LP2</t>
-  </si>
-  <si>
-    <t>LP3</t>
-  </si>
-  <si>
     <t>R1-1</t>
   </si>
   <si>
@@ -296,9 +279,6 @@
     <t>R2-2</t>
   </si>
   <si>
-    <t>150R</t>
-  </si>
-  <si>
     <t>R3</t>
   </si>
   <si>
@@ -329,9 +309,6 @@
     <t>R7</t>
   </si>
   <si>
-    <t>3R3</t>
-  </si>
-  <si>
     <t>R8</t>
   </si>
   <si>
@@ -356,21 +333,6 @@
     <t>PQFN5X6</t>
   </si>
   <si>
-    <t>TP1</t>
-  </si>
-  <si>
-    <t>TPTP08SQ</t>
-  </si>
-  <si>
-    <t>TP08SQ</t>
-  </si>
-  <si>
-    <t>TP2</t>
-  </si>
-  <si>
-    <t>TP3</t>
-  </si>
-  <si>
     <t>U$2</t>
   </si>
   <si>
@@ -404,9 +366,6 @@
     <t>Omit</t>
   </si>
   <si>
-    <t>100mOhm</t>
-  </si>
-  <si>
     <t>ALTERNATIVE TO C10</t>
   </si>
   <si>
@@ -446,12 +405,6 @@
     <t>538-39543-0603</t>
   </si>
   <si>
-    <t>not a device ?</t>
-  </si>
-  <si>
-    <t>test points</t>
-  </si>
-  <si>
     <t>580-45222C</t>
   </si>
   <si>
@@ -513,13 +466,52 @@
   </si>
   <si>
     <t>used L1</t>
+  </si>
+  <si>
+    <t>100m</t>
+  </si>
+  <si>
+    <t>3R3 (3.3)</t>
+  </si>
+  <si>
+    <t>667-ERJ-P06J154V</t>
+  </si>
+  <si>
+    <t>755-ESR03EZPJ102</t>
+  </si>
+  <si>
+    <t>755-ESR03EZPJ151</t>
+  </si>
+  <si>
+    <t>667-ERJ-PA3F2403V</t>
+  </si>
+  <si>
+    <t>667-ERJ-PA3F6203V</t>
+  </si>
+  <si>
+    <t>652-CRM1206FXR100ELF</t>
+  </si>
+  <si>
+    <t>652-CRS0805JW3R3ELF</t>
+  </si>
+  <si>
+    <t>755-ESR03EZPJ434</t>
+  </si>
+  <si>
+    <t>667-ERJ-PA3J823V</t>
+  </si>
+  <si>
+    <t>used C19</t>
+  </si>
+  <si>
+    <t>for 400V - not needed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -596,7 +588,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -626,9 +618,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -938,7 +927,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -946,13 +935,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N53"/>
+  <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" customWidth="1"/>
     <col min="2" max="2" width="19.140625" style="2" bestFit="1" customWidth="1"/>
@@ -963,35 +952,35 @@
     <col min="14" max="14" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="4" customFormat="1">
+    <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -1000,21 +989,21 @@
         <v>2</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>1</v>
@@ -1022,8 +1011,14 @@
       <c r="D3" s="8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="E3" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1037,13 +1032,13 @@
         <v>7</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1057,13 +1052,13 @@
         <v>7</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1077,13 +1072,13 @@
         <v>13</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1097,13 +1092,13 @@
         <v>7</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -1117,13 +1112,13 @@
         <v>7</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>18</v>
       </c>
@@ -1136,8 +1131,14 @@
       <c r="D9" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="E9" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
@@ -1151,13 +1152,13 @@
         <v>13</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>24</v>
       </c>
@@ -1171,21 +1172,21 @@
         <v>27</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>20</v>
@@ -1194,13 +1195,13 @@
         <v>21</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
@@ -1214,16 +1215,16 @@
         <v>7</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -1237,13 +1238,13 @@
         <v>7</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>33</v>
       </c>
@@ -1256,8 +1257,14 @@
       <c r="D15" s="7">
         <v>1206</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="E15" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
@@ -1271,18 +1278,18 @@
         <v>1206</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>37</v>
@@ -1291,16 +1298,16 @@
         <v>38</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>39</v>
       </c>
@@ -1314,13 +1321,13 @@
         <v>1206</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>40</v>
       </c>
@@ -1334,30 +1341,33 @@
         <v>1206</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="E20" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>42</v>
       </c>
@@ -1370,8 +1380,14 @@
       <c r="D21" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="E21" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>43</v>
       </c>
@@ -1385,13 +1401,13 @@
         <v>46</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>47</v>
       </c>
@@ -1404,8 +1420,14 @@
       <c r="D23" s="7" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="E23" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>48</v>
       </c>
@@ -1418,8 +1440,14 @@
       <c r="D24" s="7" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="E24" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>49</v>
       </c>
@@ -1431,13 +1459,13 @@
         <v>50</v>
       </c>
       <c r="G25" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>51</v>
       </c>
@@ -1452,13 +1480,13 @@
       </c>
       <c r="E26" s="2"/>
       <c r="G26" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>54</v>
       </c>
@@ -1472,13 +1500,13 @@
         <v>56</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>57</v>
       </c>
@@ -1492,13 +1520,13 @@
         <v>59</v>
       </c>
       <c r="G28" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>60</v>
       </c>
@@ -1510,10 +1538,10 @@
         <v>61</v>
       </c>
       <c r="G29" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>62</v>
       </c>
@@ -1527,10 +1555,10 @@
         <v>65</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>66</v>
       </c>
@@ -1542,10 +1570,10 @@
         <v>68</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>69</v>
       </c>
@@ -1559,16 +1587,16 @@
         <v>71</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>72</v>
       </c>
@@ -1582,302 +1610,290 @@
         <v>75</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="7" t="s">
+      <c r="B34" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="C34" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E34" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="6" t="s">
+      <c r="C35" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B35" s="13"/>
-      <c r="C35" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="6" t="s">
+      <c r="D35" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="G35" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
+      </c>
+      <c r="B37" s="2">
+        <v>150</v>
       </c>
       <c r="C37" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="1" t="s">
+      <c r="D42" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="G42" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="C43" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="B44" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="1" t="s">
+      <c r="C44" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="D44" s="2">
+        <v>603</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H44" s="12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>98</v>
+      </c>
+      <c r="D45" s="2">
+        <v>603</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H45" s="12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B47" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="G46" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="D47" s="2">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="1" t="s">
+      <c r="B47" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="C47" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D47" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D48" s="2">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="H49" s="12" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G53" s="9" t="s">
-        <v>162</v>
+      <c r="E47" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -1889,7 +1905,7 @@
     <hyperlink ref="H28" r:id="rId5" display="http://www.mouser.com/Search/ProductDetail.aspx?R=LM1117MPX-3.3%2fNOPBvirtualkey59500000virtualkey926-LM1117MPX3.3NOPB"/>
     <hyperlink ref="H25" r:id="rId6" display="http://www.mouser.com/Search/ProductDetail.aspx?R=39543-0603virtualkey53810000virtualkey538-39543-0603"/>
     <hyperlink ref="H33" r:id="rId7" display="http://www.mouser.com/Search/ProductDetail.aspx?R=45222Cvirtualkey58010000virtualkey580-45222C"/>
-    <hyperlink ref="H49" r:id="rId8" display="http://www.mouser.com/Search/ProductDetail.aspx?R=IRFH5025TRPBFvirtualkey57370000virtualkey942-IRFH5025TRPBF"/>
+    <hyperlink ref="H46" r:id="rId8" display="http://www.mouser.com/Search/ProductDetail.aspx?R=IRFH5025TRPBFvirtualkey57370000virtualkey942-IRFH5025TRPBF"/>
     <hyperlink ref="H5" r:id="rId9" display="http://www.mouser.com/Search/ProductDetail.aspx?R=C0603C104K5RECAUTOvirtualkey64600000virtualkey80-C0603C104K5REAUTO"/>
     <hyperlink ref="H6" r:id="rId10" display="http://www.mouser.com/Search/ProductDetail.aspx?R=C3216X7R1E225K160AAvirtualkey52130000virtualkey810-C3216X7R1E225K"/>
     <hyperlink ref="H7" r:id="rId11" display="http://www.mouser.com/Search/ProductDetail.aspx?R=C1608X7R1E154K080AAvirtualkey52130000virtualkey810-C1608X7R1E154K"/>
@@ -1905,8 +1921,20 @@
     <hyperlink ref="H19" r:id="rId21" display="http://www.mouser.com/Search/ProductDetail.aspx?R=VJ1206V106ZXQTW1BCvirtualkey61340000virtualkey77-VJ1206V106ZXQTBC"/>
     <hyperlink ref="H22" r:id="rId22" display="http://www.mouser.com/Search/ProductDetail.aspx?R=ES2G-E3%2f5BTvirtualkey61370000virtualkey625-ES2G-E3%2f5BT"/>
     <hyperlink ref="H32" r:id="rId23" display="http://www.mouser.com/Search/ProductDetail.aspx?R=B82477P4473M000virtualkey59250000virtualkey871-B82477P4473M000"/>
+    <hyperlink ref="H34" r:id="rId24" display="http://www.mouser.com/Search/ProductDetail.aspx?R=ERJ-P06J154Vvirtualkey66720000virtualkey667-ERJ-P06J154V"/>
+    <hyperlink ref="H35" r:id="rId25" display="http://www.mouser.com/Search/ProductDetail.aspx?R=ERJ-P06J154Vvirtualkey66720000virtualkey667-ERJ-P06J154V"/>
+    <hyperlink ref="H36" r:id="rId26" display="http://www.mouser.com/Search/ProductDetail.aspx?R=ESR03EZPJ102virtualkey65430000virtualkey755-ESR03EZPJ102"/>
+    <hyperlink ref="H42" r:id="rId27" display="http://www.mouser.com/Search/ProductDetail.aspx?R=ESR03EZPJ102virtualkey65430000virtualkey755-ESR03EZPJ102"/>
+    <hyperlink ref="H37" r:id="rId28" display="http://www.mouser.com/Search/ProductDetail.aspx?R=ESR03EZPJ151virtualkey65430000virtualkey755-ESR03EZPJ151"/>
+    <hyperlink ref="H38" r:id="rId29" display="http://www.mouser.com/Search/ProductDetail.aspx?R=ERJ-PA3F2403Vvirtualkey66720000virtualkey667-ERJ-PA3F2403V"/>
+    <hyperlink ref="H39" r:id="rId30" display="http://www.mouser.com/Search/ProductDetail.aspx?R=ERJ-PA3F6203Vvirtualkey66720000virtualkey667-ERJ-PA3F6203V"/>
+    <hyperlink ref="H40" r:id="rId31" display="http://www.mouser.com/Search/ProductDetail.aspx?R=CRM1206-FX-R100ELFvirtualkey65210000virtualkey652-CRM1206FXR100ELF"/>
+    <hyperlink ref="H41" r:id="rId32" display="http://www.mouser.com/Search/ProductDetail.aspx?R=CRM1206-FX-R100ELFvirtualkey65210000virtualkey652-CRM1206FXR100ELF"/>
+    <hyperlink ref="H43" r:id="rId33" display="http://www.mouser.com/Search/ProductDetail.aspx?R=CRS0805-JW-3R3ELFvirtualkey65210000virtualkey652-CRS0805JW3R3ELF"/>
+    <hyperlink ref="H44" r:id="rId34" display="http://www.mouser.com/Search/ProductDetail.aspx?R=ESR03EZPJ434virtualkey65430000virtualkey755-ESR03EZPJ434"/>
+    <hyperlink ref="H45" r:id="rId35" display="http://www.mouser.com/Search/ProductDetail.aspx?R=ERJ-PA3J823Vvirtualkey66720000virtualkey667-ERJ-PA3J823V"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId24"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId36"/>
 </worksheet>
 </file>